--- a/data/income_statement/3digits/total/799_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/799_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>799-Other reservation service and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>799-Other reservation service and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>314500.92305</v>
@@ -956,37 +862,42 @@
         <v>417032.7046</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>600688.2660600001</v>
+        <v>603948.5999200001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>672562.9877000001</v>
+        <v>676557.0064200001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>603145.0271299999</v>
+        <v>609479.7192200001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>754852.82072</v>
+        <v>760206.33894</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1058993.24637</v>
+        <v>1064773.43423</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1061018.50879</v>
+        <v>1061045.67877</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2051516.46106</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1591018.21723</v>
+        <v>1591576.0997</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2050749.59097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2075451.8519</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1132915.938</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>268762.13791</v>
@@ -995,43 +906,48 @@
         <v>363549.85837</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>511522.4928799999</v>
+        <v>514759.7865700001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>568931.8050000002</v>
+        <v>572904.2347199999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>507468.99554</v>
+        <v>513765.02132</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>644945.1412999999</v>
+        <v>650297.30195</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>762302.66697</v>
+        <v>768025.6987600001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>771727.22431</v>
+        <v>771724.73026</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1098109.10086</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1158054.48819</v>
+        <v>1158609.98517</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1461543.57795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1475245.14701</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>808554.723</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>37200.7434</v>
+        <v>37200.74340000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>45656.87552</v>
+        <v>45656.87551999999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>57054.47001</v>
@@ -1046,7 +962,7 @@
         <v>68524.01838000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>250534.01197</v>
+        <v>250548.69977</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>250469.69817</v>
@@ -1058,73 +974,83 @@
         <v>345952.89329</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>437384.1759500001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>447933.14289</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>266948.058</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>8538.041740000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7825.970710000001</v>
+        <v>7825.97071</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>32111.30317</v>
+        <v>32134.34334</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>33230.09217</v>
+        <v>33251.68117</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>30716.39375</v>
+        <v>30755.06006</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>41383.66104000001</v>
+        <v>41385.01861</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>46156.56743</v>
+        <v>46199.0357</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>38821.58631</v>
+        <v>38851.25034000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>66236.93695</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>87010.83575</v>
+        <v>87013.22124000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>151821.83707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>152273.562</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>57413.157</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>6391.99929</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5654.68427</v>
+        <v>5654.684270000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>39085.10939000001</v>
+        <v>39087.41811</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>39442.2278</v>
+        <v>39444.03127000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>39026.51626</v>
+        <v>39026.92126</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>24702.31625</v>
+        <v>24706.2731</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>26788.41374</v>
+        <v>26790.29581</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>110826.04555</v>
@@ -1138,32 +1064,37 @@
       <c r="M9" s="47" t="n">
         <v>52918.60036</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>88143.601</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5862.479399999999</v>
+        <v>5862.4794</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5223.65891</v>
+        <v>5223.658909999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>35942.56239</v>
+        <v>35944.87111</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>36079.96994</v>
+        <v>36081.77341</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>36086.75897</v>
+        <v>36087.16397</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>22923.40773</v>
+        <v>22927.36458</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>24333.08458999999</v>
+        <v>24334.96666</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>108810.87732</v>
@@ -1172,16 +1103,21 @@
         <v>77999.25597</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>42450.64402</v>
+        <v>42450.64401999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>51202.83307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>51202.83306999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>83797.86500000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>228.73323</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>10.3728</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>4310.217</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>300.78666</v>
@@ -1255,50 +1196,60 @@
       <c r="M12" s="48" t="n">
         <v>1705.39449</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>35.519</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>308108.92376</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>411378.02033</v>
+        <v>411378.0203299999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>561603.1566699999</v>
+        <v>564861.18181</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>633120.7598999998</v>
+        <v>637112.9751500001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>564118.51087</v>
+        <v>570452.79796</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>730150.50447</v>
+        <v>735500.0658400001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1032204.83263</v>
+        <v>1037983.13842</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>950192.46324</v>
+        <v>950219.6332200001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1972450.31242</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1538742.09739</v>
+        <v>1539299.97986</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1997830.99061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2022533.25154</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1044772.337</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>278641.63041</v>
@@ -1307,37 +1258,42 @@
         <v>334528.70298</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>462791.42642</v>
+        <v>465632.6774400001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>514815.3702499999</v>
+        <v>518404.35104</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>478144.59823</v>
+        <v>483795.45323</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>613193.20047</v>
+        <v>616153.98135</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>907479.06449</v>
+        <v>910447.9353299999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>802972.62424</v>
+        <v>803385.7675899999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1766511.40416</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1265258.28515</v>
+        <v>1265610.8125</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1671385.12107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1693492.44553</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>818450.4300000001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4533.80025</v>
@@ -1352,7 +1308,7 @@
         <v>4151.97946</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>906.35019</v>
+        <v>10275.66027</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>2579.54787</v>
@@ -1370,13 +1326,18 @@
         <v>8110.43375</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7914.56061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7919.71906</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>14286.482</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>25336.95842</v>
@@ -1388,10 +1349,10 @@
         <v>110052.19485</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>113332.9076</v>
+        <v>114306.79957</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>115499.32473</v>
+        <v>117381.60115</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>220034.91948</v>
@@ -1406,16 +1367,21 @@
         <v>1071497.54157</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>206457.36964</v>
+        <v>206526.4529</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>254740.06387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>262120.17543</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>302115.221</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>248748.69144</v>
@@ -1424,37 +1390,42 @@
         <v>301138.49578</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>201289.0209</v>
+        <v>204130.27192</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>396814.75959</v>
+        <v>399429.84841</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>361082.4688699999</v>
+        <v>355481.73737</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>389750.35121</v>
+        <v>392711.13209</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>511421.42029</v>
+        <v>514390.29113</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>453811.93366</v>
+        <v>454225.07701</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>685149.5827799999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1047741.35633</v>
+        <v>1048024.80042</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1402946.99043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1417669.04488</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>495972.642</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>22.1803</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>5783.50616</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>6076.085</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>29467.29335</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>76849.31735000001</v>
+        <v>76849.31735</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>98811.73024999999</v>
+        <v>99228.50437000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>118305.38965</v>
+        <v>118708.62411</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>85973.91264</v>
+        <v>86657.34473</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>116957.304</v>
+        <v>119346.08449</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>124725.76814</v>
+        <v>127535.20309</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>147219.839</v>
+        <v>146833.86563</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>205938.90826</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>273483.81224</v>
+        <v>273689.16736</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>326445.86954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>329040.80601</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>226321.907</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>47885.07035</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>57328.06301000001</v>
+        <v>57328.06300999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>73306.60975</v>
+        <v>73587.45409999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>101069.25125</v>
+        <v>101330.76217</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>88952.55147000002</v>
+        <v>89475.80512999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>108022.70764</v>
+        <v>110085.11274</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>154673.85744</v>
+        <v>157535.34679</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>230517.77974</v>
+        <v>230585.67769</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>260877.50255</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>298340.1513</v>
+        <v>299550.00571</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>365469.57762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>370767.81029</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>313796.78</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0.36343</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>5.19294</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>45.219</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>7132.26633</v>
@@ -1619,19 +1610,19 @@
         <v>9781.38545</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>14785.55247</v>
+        <v>14848.83443</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>25486.16046</v>
+        <v>25524.49949</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>23304.95954</v>
+        <v>23451.65111</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>22968.60406</v>
+        <v>23158.55426</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>29209.75491</v>
+        <v>29432.85445</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>74689.12771</v>
@@ -1640,94 +1631,109 @@
         <v>85201.87272</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>76823.34543</v>
+        <v>77101.50719</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>101256.20511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>101600.83503</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>62879.676</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>40752.44059000001</v>
+        <v>40752.44059</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>47498.83557</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>58504.23728</v>
+        <v>58721.79967</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>75547.22317999999</v>
+        <v>75770.39507</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>65647.59193</v>
+        <v>66024.15402</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>84854.02913000001</v>
+        <v>86726.48403000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>123496.99705</v>
+        <v>126135.38686</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>154434.03063</v>
+        <v>154501.92858</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>174733.67331</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>220850.12577</v>
+        <v>221781.81842</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>264208.17957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>269161.78232</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>250871.885</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-18417.77700000001</v>
+        <v>-18417.777</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>19521.25434</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>25505.1205</v>
+        <v>25641.05027</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>17236.13839999999</v>
+        <v>17377.86194</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-2978.638829999999</v>
+        <v>-2818.4604</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8934.596360000003</v>
+        <v>9260.971750000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-29948.0893</v>
+        <v>-30000.1437</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-83297.94073999999</v>
+        <v>-83751.81206</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-54938.59428999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-24856.33906</v>
+        <v>-25860.83835</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-39023.70808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-41727.00428</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-87474.87300000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>19317.75605</v>
@@ -1736,43 +1742,48 @@
         <v>17951.12088</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>25073.20253</v>
+        <v>25074.03557</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>27957.10023</v>
+        <v>27957.13146</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>51724.67301999999</v>
+        <v>51783.78208</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>38281.70808</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>76117.97269</v>
+        <v>77034.86476999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>80794.96152</v>
+        <v>80793.39483</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>83993.69794</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>143370.19559</v>
+        <v>143378.08606</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>96262.30813999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>96308.96934000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>132601.61</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1108.58111</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>557.6766899999999</v>
+        <v>557.67669</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>508.46808</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>17092.45874</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>10494.39</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>48.98065</v>
@@ -1840,35 +1856,40 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>7456.76238</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5991.44395</v>
+        <v>5991.443949999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7526.15616</v>
+        <v>7526.9892</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>16481.47167</v>
+        <v>16481.5029</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>18846.47151</v>
+        <v>18847.49717</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>13114.25327</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>18192.55718</v>
+        <v>18321.58872</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>15832.52118</v>
+        <v>15833.24915</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>20642.93688</v>
@@ -1877,13 +1898,18 @@
         <v>15370.37075</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>19516.05269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>19516.54264</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>12455.986</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2013.16453</v>
@@ -1904,7 +1930,7 @@
         <v>3717.3769</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4953.412179999999</v>
+        <v>4953.41218</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>4645.37285</v>
@@ -1913,16 +1939,21 @@
         <v>6641.15257</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7567.30746</v>
+        <v>7567.307459999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7224.6975</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7243.072510000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>4926.974</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3.40031</v>
@@ -1943,13 +1974,13 @@
         <v>170.80661</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>45.696</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>386.08842</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>319.59465</v>
+        <v>319.5946499999999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>173.60375</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>171.25121</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>279.892</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>61.81606</v>
@@ -1979,10 +2015,10 @@
         <v>16455.74233</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5364.412490000001</v>
+        <v>5364.41249</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>32433.41261</v>
+        <v>32437.61465</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>15416.32237</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>3355.00686</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>12069.491</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>5945.62266</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5574.79798</v>
+        <v>5574.797979999999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>10388.78706</v>
@@ -2015,31 +2056,36 @@
         <v>3819.70208</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7399.108619999999</v>
+        <v>7399.16359</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>9288.914049999999</v>
+        <v>9288.914050000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15019.03128</v>
+        <v>15754.03806</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>27409.59705</v>
+        <v>27407.31331</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>38933.64362</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>91379.4819</v>
+        <v>91381.15781</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>44068.0272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>44115.6326</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>79462.166</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.06146</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>98.54599</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>72.559</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>9.580209999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>82.79600000000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2679.36689</v>
@@ -2132,31 +2188,36 @@
         <v>2384.53827</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4471.304630000001</v>
+        <v>4529.33306</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5182.881209999999</v>
+        <v>5182.88121</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2190.56199</v>
+        <v>2193.51771</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2930.45571</v>
+        <v>2930.44479</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3707.695310000001</v>
+        <v>3707.69531</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4598.03629</v>
+        <v>4604.250849999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4726.68774</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4706.878580000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>12757.356</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>10726.28355</v>
@@ -2165,37 +2226,42 @@
         <v>9630.839689999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>13710.75495</v>
+        <v>13716.25203</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>11763.90195</v>
+        <v>11772.09434</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>26579.89302</v>
+        <v>26579.97202</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>18821.95888</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>38849.70225</v>
+        <v>39064.11538</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>35456.25952000001</v>
+        <v>35462.51965</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>54324.52954</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>141880.18127</v>
+        <v>141884.25096</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>81139.97087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>81197.20972</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>168504.604</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3441.04299</v>
@@ -2204,7 +2270,7 @@
         <v>3756.13454</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>4287.585840000001</v>
+        <v>4287.58584</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>6407.80861</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>1756.05713</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3844.937</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>127.5667</v>
@@ -2249,13 +2320,13 @@
         <v>128.81152</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>293.7457900000001</v>
+        <v>293.74579</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>957.7562800000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>258.82174</v>
+        <v>316.74474</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>2918.66417</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>5088.31572</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>68.301</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.00864</v>
@@ -2294,7 +2370,7 @@
         <v>5269.08842</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>22420.77917</v>
+        <v>22420.80588</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2308,23 +2384,28 @@
       <c r="M39" s="48" t="n">
         <v>46.18698</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>47.355</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6865.04143</v>
+        <v>6865.041429999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5539.64377</v>
+        <v>5539.643770000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>8451.52449</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4498.65482</v>
+        <v>4498.654820000001</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>8423.864619999998</v>
@@ -2333,7 +2414,7 @@
         <v>9199.6996</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>15350.37892</v>
+        <v>15506.84234</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>31654.7972</v>
@@ -2342,16 +2423,21 @@
         <v>47239.11765</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>120118.90729</v>
+        <v>120122.97698</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>72249.66634000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>72291.79419</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>162214.671</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>3.91743</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>126.723</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>290.62379</v>
@@ -2438,13 +2534,13 @@
         <v>133.28065</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>922.15163</v>
+        <v>927.6487100000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>674.5517000000001</v>
+        <v>682.74409</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1789.02721</v>
+        <v>1789.10621</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>3116.89365</v>
@@ -2453,61 +2549,71 @@
         <v>761.30852</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>783.2306799999999</v>
+        <v>789.49081</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>937.2136399999999</v>
+        <v>937.2136400000002</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>618.87799</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1995.82727</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2010.93827</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2202.617</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>8480.253860000001</v>
+        <v>8480.253859999999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>9195.924059999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>11516.57131</v>
+        <v>11543.88125</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>17659.83571</v>
+        <v>17712.09464</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>24228.98171</v>
+        <v>24289.85814</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>30797.29229</v>
+        <v>30857.07818</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>28206.63032</v>
+        <v>28250.81259</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>25191.80134999999</v>
+        <v>25193.36839</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>39480.42516</v>
+        <v>39480.42516000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>56637.47886</v>
+        <v>56637.93754000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>149134.93167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>149698.20315</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>47146.327</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>8465.23091</v>
@@ -2516,37 +2622,42 @@
         <v>9177.035830000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>11506.77852</v>
+        <v>11534.08846</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>17655.29177</v>
+        <v>17707.5507</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>23819.57590000001</v>
+        <v>23880.45233</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>30000.1278</v>
+        <v>30059.91369</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>27344.58914</v>
+        <v>27388.77141</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>23406.36938</v>
+        <v>23407.93642</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>35609.52896</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>55285.39996000001</v>
+        <v>55285.85864</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>147256.34638</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>147819.61786</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>45824.236</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>15.02295</v>
@@ -2567,7 +2678,7 @@
         <v>797.16449</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>862.0411800000001</v>
+        <v>862.0411799999999</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>1785.43197</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1878.58529</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1322.091</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-18306.55836</v>
@@ -2594,37 +2710,42 @@
         <v>18645.61147</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>25350.99677</v>
+        <v>25454.95256</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>15769.50097</v>
+        <v>15850.80442</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-2062.84054</v>
+        <v>-1904.50848</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-2402.946729999997</v>
+        <v>-2136.357230000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-20886.44918</v>
+        <v>-20280.2069</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-63151.04008999999</v>
+        <v>-63614.30527</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-64749.85105</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-80003.8036</v>
+        <v>-81004.94078999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-173036.30248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-176313.44781</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-170524.194</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1165.84197</v>
@@ -2639,31 +2760,36 @@
         <v>3188.00858</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3448.659629999999</v>
+        <v>3453.16809</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2826.44145</v>
+        <v>2851.0437</v>
       </c>
       <c r="I48" s="47" t="n">
         <v>7027.600179999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>6204.41521</v>
+        <v>6219.62343</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>6587.93749</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>12684.9048</v>
+        <v>12685.29892</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>49592.76811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>49700.38735</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>257159.636</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>36.72103</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>54.086</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1165.84197</v>
@@ -2717,31 +2848,36 @@
         <v>3166.6123</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3447.61837</v>
+        <v>3452.12683</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2826.03367</v>
+        <v>2850.63592</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7017.37075</v>
+        <v>7017.370750000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>6183.91917</v>
+        <v>6199.127390000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6577.60479</v>
+        <v>6577.604790000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>12660.65191</v>
+        <v>12661.04603</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>49556.04708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>49663.66631999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>257105.55</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1490.60722</v>
@@ -2750,37 +2886,42 @@
         <v>2327.50677</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>22898.41853</v>
+        <v>22912.46582</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2296.84585</v>
+        <v>2339.23506</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2566.23103</v>
+        <v>2594.15501</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5651.883140000001</v>
+        <v>5660.389099999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7742.720240000001</v>
+        <v>7769.2762</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>16403.61297</v>
+        <v>16405.62081</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9083.71688</v>
+        <v>9083.716879999998</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>120785.73724</v>
+        <v>120812.87908</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>76628.84366</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>76649.01984000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>38914.413</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>73.81549000000001</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>890.60459</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>622.187</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>28.72044</v>
@@ -2834,7 +2980,7 @@
         <v>218.99451</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>231.8156200000001</v>
+        <v>231.81562</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>15.62447</v>
@@ -2849,16 +2995,21 @@
         <v>132.64659</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3965.64935</v>
+        <v>3970.04246</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1630.36835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1629.49718</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7087.343</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1388.07129</v>
@@ -2867,37 +3018,42 @@
         <v>2203.46775</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>22433.45958</v>
+        <v>22447.50687</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2071.12018</v>
+        <v>2113.50939</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2334.41541</v>
+        <v>2362.339390000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5636.25867</v>
+        <v>5644.76463</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6270.72678</v>
+        <v>6297.28274</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>16139.25683</v>
+        <v>16141.26467</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8950.260360000002</v>
+        <v>8950.26036</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>116819.83304</v>
+        <v>116842.58177</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>74107.87071999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>74128.91807000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>31204.883</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-18631.32361</v>
@@ -2906,37 +3062,42 @@
         <v>21495.99261</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>4093.688110000001</v>
+        <v>4183.596610000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>16660.6637</v>
+        <v>16699.57794</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-1180.411940000001</v>
+        <v>-1045.495399999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-5228.38842</v>
+        <v>-4945.702629999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-21601.56924</v>
+        <v>-21021.88292</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-73350.23784999999</v>
+        <v>-73800.30265000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-67245.63044000001</v>
+        <v>-67245.63043999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-188104.63604</v>
+        <v>-189132.52095</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-200072.37803</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-203262.0803</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>47721.029</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2839.91905</v>
@@ -2945,19 +3106,19 @@
         <v>5171.78604</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7602.935939999999</v>
+        <v>7623.7271</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7537.359200000001</v>
+        <v>7555.552439999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4669.95378</v>
+        <v>4610.802900000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6362.5611</v>
+        <v>6425.55281</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4787.12685</v>
+        <v>4911.21486</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>5582.447929999999</v>
@@ -2966,16 +3127,21 @@
         <v>6425.1432</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13744.9425</v>
+        <v>13750.79784</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>21915.74222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>22062.34894</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>13453.483</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-21471.24266</v>
@@ -2984,34 +3150,37 @@
         <v>16324.20657</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3509.247830000001</v>
+        <v>-3440.130489999998</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>9123.3045</v>
+        <v>9144.0255</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-5850.36572</v>
+        <v>-5656.2983</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-11590.94952</v>
+        <v>-11371.25544</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-26388.69609</v>
+        <v>-25933.09778</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-78932.68578</v>
+        <v>-79382.75057999998</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-73670.77363999998</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-201849.57854</v>
+        <v>-202883.31879</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-221988.12025</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-225324.42924</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>34267.546</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>519</v>
@@ -3038,34 +3210,37 @@
         <v>533</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>982</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1061</v>
+        <v>1155</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1350</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>